--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Development\uni-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D265F7C-B6E8-4F82-BDFB-0863436E5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F63E95-5C43-4F54-9F08-D8C8BEBF3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14730" windowHeight="15705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Simply Supported</t>
   </si>
@@ -50,6 +63,30 @@
   </si>
   <si>
     <t>millimeters</t>
+  </si>
+  <si>
+    <t>THEORY SECTION</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>E(GPa)</t>
+  </si>
+  <si>
+    <t>Cross-section</t>
+  </si>
+  <si>
+    <t>7*8</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -682,13 +719,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simple</a:t>
+              <a:t>Simply Supported Beam Data</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> charging data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -730,6 +762,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Charging Data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -854,6 +889,115 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A448-4DF6-8DEC-6EF9F51408F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Discharging data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A448-4DF6-8DEC-6EF9F51408F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1214,7 +1358,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cantileaver charging data</a:t>
+              <a:t>Propped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cantileaver Data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1257,6 +1405,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Charging Data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1363,6 +1514,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2200-4EE1-AF71-92710EFFCF63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Discharging Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.00">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2200-4EE1-AF71-92710EFFCF63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2145,11 +2411,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Fixed charging</a:t>
+              <a:t>Fixed Beam</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> data</a:t>
+              <a:t> Data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2193,6 +2459,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Charging Data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2293,6 +2562,127 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E70-4C49-B86F-7F2E98966183}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Discharging Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E70-4C49-B86F-7F2E98966183}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6896,10 +7286,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:S17"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,6 +7776,116 @@
         <v>164</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="e">
+        <f>$C$57*$D$57*(A57/$E$57)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" s="1">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
